--- a/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#70#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/performances_minNPV_train.xlsx
+++ b/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#70#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/performances_minNPV_train.xlsx
@@ -503,46 +503,34 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7252005703219765</v>
+        <v>0.6920382165605093</v>
       </c>
       <c r="C4">
-        <v>0.004363371397943849</v>
+        <v>0.003566467800395934</v>
       </c>
       <c r="D4">
-        <v>0.5256729763964324</v>
+        <v>0.5257361569755512</v>
       </c>
       <c r="E4">
-        <v>0.003219208501751836</v>
-      </c>
-      <c r="F4">
-        <v>0.9994169096209913</v>
-      </c>
-      <c r="G4">
-        <v>0.000569618233798197</v>
+        <v>0.001539559272844326</v>
       </c>
       <c r="H4">
-        <v>0.3568159496587557</v>
+        <v>0.3566466479375209</v>
       </c>
       <c r="I4">
-        <v>0.003109063399679202</v>
-      </c>
-      <c r="J4">
-        <v>0.9990104055559507</v>
-      </c>
-      <c r="K4">
-        <v>0.0009667843388457831</v>
+        <v>0.001423368864069685</v>
       </c>
       <c r="L4">
-        <v>0.07694026515715775</v>
+        <v>0.05726114649681528</v>
       </c>
       <c r="M4">
-        <v>0.01179964793413069</v>
+        <v>0.005749655516923982</v>
       </c>
       <c r="N4">
-        <v>0.3888888888888889</v>
+        <v>0.3807112970711298</v>
       </c>
       <c r="O4">
-        <v>0.007663275773813039</v>
+        <v>0.003776970360489795</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -550,46 +538,46 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7394539766802543</v>
+        <v>0.7282771477396301</v>
       </c>
       <c r="C5">
-        <v>0.00400447789226277</v>
+        <v>0.00395776894259614</v>
       </c>
       <c r="D5">
-        <v>0.5373734601364547</v>
+        <v>0.5399461955555989</v>
       </c>
       <c r="E5">
-        <v>0.0028576326660541</v>
+        <v>0.003159030257146811</v>
       </c>
       <c r="F5">
-        <v>0.9991341991341991</v>
+        <v>0.998780487804878</v>
       </c>
       <c r="G5">
-        <v>0.0006833053291250835</v>
+        <v>0.0007295901475407041</v>
       </c>
       <c r="H5">
-        <v>0.3676758627979595</v>
+        <v>0.3701823105878546</v>
       </c>
       <c r="I5">
-        <v>0.002763601695619233</v>
+        <v>0.003114392039682057</v>
       </c>
       <c r="J5">
-        <v>0.9983035301662752</v>
+        <v>0.9975501784800564</v>
       </c>
       <c r="K5">
-        <v>0.001340915305217627</v>
+        <v>0.001471185143860576</v>
       </c>
       <c r="L5">
-        <v>0.1200324412003244</v>
+        <v>0.109936305732484</v>
       </c>
       <c r="M5">
-        <v>0.01049848001158459</v>
+        <v>0.01166181413924225</v>
       </c>
       <c r="N5">
-        <v>0.4173132289074317</v>
+        <v>0.4148953974895398</v>
       </c>
       <c r="O5">
-        <v>0.00680010827267391</v>
+        <v>0.007454427305503886</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -597,46 +585,46 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8436151603498543</v>
+        <v>0.8459080459770115</v>
       </c>
       <c r="C6">
-        <v>0.006265381882880283</v>
+        <v>0.005880982008701685</v>
       </c>
       <c r="D6">
-        <v>0.5832131971105342</v>
+        <v>0.573830957213323</v>
       </c>
       <c r="E6">
-        <v>0.0107772660899681</v>
+        <v>0.006575762512040395</v>
       </c>
       <c r="F6">
-        <v>0.9987755102040816</v>
+        <v>0.9989655172413794</v>
       </c>
       <c r="G6">
-        <v>0.001388578452525824</v>
+        <v>0.001173059537475263</v>
       </c>
       <c r="H6">
-        <v>0.4144907853609583</v>
+        <v>0.4035193705316821</v>
       </c>
       <c r="I6">
-        <v>0.01254107469542354</v>
+        <v>0.007329494433769401</v>
       </c>
       <c r="J6">
-        <v>0.9992264539302869</v>
+        <v>0.9992515688445921</v>
       </c>
       <c r="K6">
-        <v>0.000878299781389924</v>
+        <v>0.0008515351282297745</v>
       </c>
       <c r="L6">
-        <v>0.2592669720949604</v>
+        <v>0.2781666666666667</v>
       </c>
       <c r="M6">
-        <v>0.0283850617121244</v>
+        <v>0.01751615346863489</v>
       </c>
       <c r="N6">
-        <v>0.5091009376723663</v>
+        <v>0.5130337078651686</v>
       </c>
       <c r="O6">
-        <v>0.01848522305193798</v>
+        <v>0.01152254493604143</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -644,46 +632,46 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8607020408163264</v>
+        <v>0.8609425287356324</v>
       </c>
       <c r="C7">
-        <v>0.00515046081134285</v>
+        <v>0.00530815865363321</v>
       </c>
       <c r="D7">
-        <v>0.6008472787052712</v>
+        <v>0.6017294703940993</v>
       </c>
       <c r="E7">
-        <v>0.01195151222891844</v>
+        <v>0.01089528307965204</v>
       </c>
       <c r="F7">
-        <v>0.9972</v>
+        <v>0.9948275862068967</v>
       </c>
       <c r="G7">
-        <v>0.002035270059795646</v>
+        <v>0.002455436191426519</v>
       </c>
       <c r="H7">
-        <v>0.4336128542604898</v>
+        <v>0.4343799556402416</v>
       </c>
       <c r="I7">
-        <v>0.01438419029861321</v>
+        <v>0.01277511776293283</v>
       </c>
       <c r="J7">
-        <v>0.9981527670760661</v>
+        <v>0.9960710750671296</v>
       </c>
       <c r="K7">
-        <v>0.00134473140731306</v>
+        <v>0.00188135964102587</v>
       </c>
       <c r="L7">
-        <v>0.31</v>
+        <v>0.353</v>
       </c>
       <c r="M7">
-        <v>0.0302193302836859</v>
+        <v>0.02777370802461604</v>
       </c>
       <c r="N7">
-        <v>0.5421621621621621</v>
+        <v>0.5621348314606741</v>
       </c>
       <c r="O7">
-        <v>0.019460261550729</v>
+        <v>0.01806071655846941</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -691,46 +679,46 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7873977873977872</v>
+        <v>0.7794598425196851</v>
       </c>
       <c r="C8">
-        <v>0.004258435202902811</v>
+        <v>0.00392861557323787</v>
       </c>
       <c r="D8">
-        <v>0.4967909475372965</v>
+        <v>0.5271222882881227</v>
       </c>
       <c r="E8">
-        <v>0.005490208462604285</v>
+        <v>0.005786997499421354</v>
       </c>
       <c r="F8">
-        <v>0.992063492063492</v>
+        <v>0.9850000000000003</v>
       </c>
       <c r="G8">
-        <v>0.002249963100257046</v>
+        <v>0.001727039179130974</v>
       </c>
       <c r="H8">
-        <v>0.3319957812335754</v>
+        <v>0.3604928948321959</v>
       </c>
       <c r="I8">
-        <v>0.005157784059322545</v>
+        <v>0.005459298428239445</v>
       </c>
       <c r="J8">
-        <v>0.9917732256624957</v>
+        <v>0.9827713382858734</v>
       </c>
       <c r="K8">
-        <v>0.00234995166518126</v>
+        <v>0.002052189618496403</v>
       </c>
       <c r="L8">
-        <v>0.244047619047619</v>
+        <v>0.3050393700787402</v>
       </c>
       <c r="M8">
-        <v>0.01850807572877236</v>
+        <v>0.01822517151273212</v>
       </c>
       <c r="N8">
-        <v>0.448051948051948</v>
+        <v>0.4971186440677965</v>
       </c>
       <c r="O8">
-        <v>0.01293520218150718</v>
+        <v>0.01274934618439522</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -738,46 +726,46 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7954719387755101</v>
+        <v>0.7899511811023622</v>
       </c>
       <c r="C9">
-        <v>0.003817782575557871</v>
+        <v>0.003592399234988997</v>
       </c>
       <c r="D9">
-        <v>0.4912031662969087</v>
+        <v>0.5200616925032543</v>
       </c>
       <c r="E9">
-        <v>0.008410639363134131</v>
+        <v>0.006286894112957686</v>
       </c>
       <c r="F9">
-        <v>0.9895238095238096</v>
+        <v>0.9858000000000001</v>
       </c>
       <c r="G9">
-        <v>0.002356907940817332</v>
+        <v>0.002056651575548019</v>
       </c>
       <c r="H9">
-        <v>0.3280425903116101</v>
+        <v>0.3540126268346856</v>
       </c>
       <c r="I9">
-        <v>0.007787899941605503</v>
+        <v>0.006034631599528772</v>
       </c>
       <c r="J9">
-        <v>0.9892102901046393</v>
+        <v>0.9834786071765</v>
       </c>
       <c r="K9">
-        <v>0.002472695097212374</v>
+        <v>0.002307985180578176</v>
       </c>
       <c r="L9">
-        <v>0.2229464285714286</v>
+        <v>0.282992125984252</v>
       </c>
       <c r="M9">
-        <v>0.02783862346402845</v>
+        <v>0.02018218239359082</v>
       </c>
       <c r="N9">
-        <v>0.432012987012987</v>
+        <v>0.4815254237288135</v>
       </c>
       <c r="O9">
-        <v>0.01967415626709706</v>
+        <v>0.01402594258754603</v>
       </c>
     </row>
   </sheetData>
